--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_299__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_299__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,16 +5873,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>16.93184661865234</c:v>
+                  <c:v>16.93184471130371</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25.13323974609375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.77840232849121</c:v>
+                  <c:v>31.77839851379395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.89067459106445</c:v>
+                  <c:v>15.8906717300415</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>31.28511428833008</c:v>
@@ -5891,7 +5891,7 @@
                   <c:v>19.42119598388672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.07537269592285</c:v>
+                  <c:v>23.07537460327148</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.10408973693848</c:v>
@@ -5900,7 +5900,7 @@
                   <c:v>19.00117492675781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.548744201660156</c:v>
+                  <c:v>4.548745632171631</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>16.99184226989746</c:v>
@@ -5918,7 +5918,7 @@
                   <c:v>36.20854187011719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.9376049041748</c:v>
+                  <c:v>22.93760299682617</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>16.94939613342285</c:v>
@@ -5933,25 +5933,25 @@
                   <c:v>16.83427619934082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.2100887298584</c:v>
+                  <c:v>19.21009063720703</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.5894603729248</c:v>
+                  <c:v>17.58946418762207</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>17.0356273651123</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.80227661132812</c:v>
+                  <c:v>19.80227851867676</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14.92357635498047</c:v>
+                  <c:v>14.92357540130615</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.14427947998047</c:v>
+                  <c:v>43.144287109375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.973986268043518</c:v>
+                  <c:v>1.973987460136414</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>16.96040916442871</c:v>
@@ -5972,7 +5972,7 @@
                   <c:v>16.80971145629883</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.64469909667969</c:v>
+                  <c:v>17.64469718933105</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>17.5533561706543</c:v>
@@ -5981,16 +5981,16 @@
                   <c:v>16.45026969909668</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.417532682418823</c:v>
+                  <c:v>2.417530298233032</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35.32050323486328</c:v>
+                  <c:v>35.32050704956055</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.43813133239746</c:v>
+                  <c:v>12.43813323974609</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.00256156921387</c:v>
+                  <c:v>23.00255966186523</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>17.24496078491211</c:v>
@@ -6002,7 +6002,7 @@
                   <c:v>37.83191299438477</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>22.69155311584473</c:v>
+                  <c:v>22.69155120849609</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>16.71579551696777</c:v>
@@ -6014,10 +6014,10 @@
                   <c:v>28.69876480102539</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.62703323364258</c:v>
+                  <c:v>17.62703132629395</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.64128494262695</c:v>
+                  <c:v>21.64128875732422</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>28.06334495544434</c:v>
@@ -6035,7 +6035,7 @@
                   <c:v>16.91413879394531</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15.87872982025146</c:v>
+                  <c:v>15.87872886657715</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>21.9932861328125</c:v>
@@ -6050,7 +6050,7 @@
                   <c:v>14.48001384735107</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.08885192871094</c:v>
+                  <c:v>17.08885383605957</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>17.37348556518555</c:v>
@@ -6065,10 +6065,10 @@
                   <c:v>31.59335327148438</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11.31004047393799</c:v>
+                  <c:v>11.31004238128662</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.94584655761719</c:v>
+                  <c:v>17.94584465026855</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>17.99292373657227</c:v>
@@ -6083,7 +6083,7 @@
                   <c:v>20.10627555847168</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18.99816131591797</c:v>
+                  <c:v>18.99815940856934</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>4.738396167755127</c:v>
@@ -6107,10 +6107,10 @@
                   <c:v>15.29861259460449</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.90891647338867</c:v>
+                  <c:v>16.90891456604004</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>17.45605087280273</c:v>
+                  <c:v>17.45605278015137</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>17.75017166137695</c:v>
@@ -6119,7 +6119,7 @@
                   <c:v>23.95292663574219</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>25.27485656738281</c:v>
+                  <c:v>25.27485847473145</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>16.64974784851074</c:v>
@@ -6137,7 +6137,7 @@
                   <c:v>17.67558860778809</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.45548439025879</c:v>
+                  <c:v>13.45548343658447</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>17.17096900939941</c:v>
@@ -6149,22 +6149,22 @@
                   <c:v>24.34209823608398</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.891535758972168</c:v>
+                  <c:v>7.891537189483643</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14.49742698669434</c:v>
+                  <c:v>14.4974250793457</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>10.39203643798828</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>17.63395690917969</c:v>
+                  <c:v>17.63395500183105</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>21.78056907653809</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.654595375061035</c:v>
+                  <c:v>6.65459680557251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.93184661865234</v>
+        <v>16.93184471130371</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.77840232849121</v>
+        <v>31.77839851379395</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.89067459106445</v>
+        <v>15.8906717300415</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.07537269592285</v>
+        <v>23.07537460327148</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.548744201660156</v>
+        <v>4.548745632171631</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>22.9376049041748</v>
+        <v>22.93760299682617</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.2100887298584</v>
+        <v>19.21009063720703</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.5894603729248</v>
+        <v>17.58946418762207</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.80227661132812</v>
+        <v>19.80227851867676</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>14.92357635498047</v>
+        <v>14.92357540130615</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>43.14427947998047</v>
+        <v>43.144287109375</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.973986268043518</v>
+        <v>1.973987460136414</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>17.64469909667969</v>
+        <v>17.64469718933105</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2.417532682418823</v>
+        <v>2.417530298233032</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>35.32050323486328</v>
+        <v>35.32050704956055</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>12.43813133239746</v>
+        <v>12.43813323974609</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>23.00256156921387</v>
+        <v>23.00255966186523</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>22.69155311584473</v>
+        <v>22.69155120849609</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>17.62703323364258</v>
+        <v>17.62703132629395</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>21.64128494262695</v>
+        <v>21.64128875732422</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>15.87872982025146</v>
+        <v>15.87872886657715</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>17.08885192871094</v>
+        <v>17.08885383605957</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>11.31004047393799</v>
+        <v>11.31004238128662</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>17.94584655761719</v>
+        <v>17.94584465026855</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>18.99816131591797</v>
+        <v>18.99815940856934</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>16.90891647338867</v>
+        <v>16.90891456604004</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>17.45605087280273</v>
+        <v>17.45605278015137</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>25.27485656738281</v>
+        <v>25.27485847473145</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>13.45548439025879</v>
+        <v>13.45548343658447</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>7.891535758972168</v>
+        <v>7.891537189483643</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>14.49742698669434</v>
+        <v>14.4974250793457</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>17.63395690917969</v>
+        <v>17.63395500183105</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>6.654595375061035</v>
+        <v>6.65459680557251</v>
       </c>
     </row>
     <row r="100" spans="1:6">
